--- a/excel/Consumption.xlsx
+++ b/excel/Consumption.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Utility  Consumption</t>
   </si>
@@ -212,6 +212,30 @@
   <si>
     <t>お気軽に０２４－３１３２７０７０までお問い合わせください。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>20.4</t>
   </si>
 </sst>
 </file>
@@ -766,7 +790,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -818,7 +842,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1140,266 +1164,266 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="259" width="9" style="1"/>
-    <col min="260" max="260" width="15.75" style="1" customWidth="1"/>
-    <col min="261" max="262" width="19" style="1" customWidth="1"/>
-    <col min="263" max="263" width="16.625" style="1" customWidth="1"/>
-    <col min="264" max="515" width="9" style="1"/>
-    <col min="516" max="516" width="15.75" style="1" customWidth="1"/>
-    <col min="517" max="518" width="19" style="1" customWidth="1"/>
-    <col min="519" max="519" width="16.625" style="1" customWidth="1"/>
-    <col min="520" max="771" width="9" style="1"/>
-    <col min="772" max="772" width="15.75" style="1" customWidth="1"/>
-    <col min="773" max="774" width="19" style="1" customWidth="1"/>
-    <col min="775" max="775" width="16.625" style="1" customWidth="1"/>
-    <col min="776" max="1027" width="9" style="1"/>
-    <col min="1028" max="1028" width="15.75" style="1" customWidth="1"/>
-    <col min="1029" max="1030" width="19" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="16.625" style="1" customWidth="1"/>
-    <col min="1032" max="1283" width="9" style="1"/>
-    <col min="1284" max="1284" width="15.75" style="1" customWidth="1"/>
-    <col min="1285" max="1286" width="19" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="16.625" style="1" customWidth="1"/>
-    <col min="1288" max="1539" width="9" style="1"/>
-    <col min="1540" max="1540" width="15.75" style="1" customWidth="1"/>
-    <col min="1541" max="1542" width="19" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="16.625" style="1" customWidth="1"/>
-    <col min="1544" max="1795" width="9" style="1"/>
-    <col min="1796" max="1796" width="15.75" style="1" customWidth="1"/>
-    <col min="1797" max="1798" width="19" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="16.625" style="1" customWidth="1"/>
-    <col min="1800" max="2051" width="9" style="1"/>
-    <col min="2052" max="2052" width="15.75" style="1" customWidth="1"/>
-    <col min="2053" max="2054" width="19" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="16.625" style="1" customWidth="1"/>
-    <col min="2056" max="2307" width="9" style="1"/>
-    <col min="2308" max="2308" width="15.75" style="1" customWidth="1"/>
-    <col min="2309" max="2310" width="19" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="16.625" style="1" customWidth="1"/>
-    <col min="2312" max="2563" width="9" style="1"/>
-    <col min="2564" max="2564" width="15.75" style="1" customWidth="1"/>
-    <col min="2565" max="2566" width="19" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="16.625" style="1" customWidth="1"/>
-    <col min="2568" max="2819" width="9" style="1"/>
-    <col min="2820" max="2820" width="15.75" style="1" customWidth="1"/>
-    <col min="2821" max="2822" width="19" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="16.625" style="1" customWidth="1"/>
-    <col min="2824" max="3075" width="9" style="1"/>
-    <col min="3076" max="3076" width="15.75" style="1" customWidth="1"/>
-    <col min="3077" max="3078" width="19" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="16.625" style="1" customWidth="1"/>
-    <col min="3080" max="3331" width="9" style="1"/>
-    <col min="3332" max="3332" width="15.75" style="1" customWidth="1"/>
-    <col min="3333" max="3334" width="19" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="16.625" style="1" customWidth="1"/>
-    <col min="3336" max="3587" width="9" style="1"/>
-    <col min="3588" max="3588" width="15.75" style="1" customWidth="1"/>
-    <col min="3589" max="3590" width="19" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="16.625" style="1" customWidth="1"/>
-    <col min="3592" max="3843" width="9" style="1"/>
-    <col min="3844" max="3844" width="15.75" style="1" customWidth="1"/>
-    <col min="3845" max="3846" width="19" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="16.625" style="1" customWidth="1"/>
-    <col min="3848" max="4099" width="9" style="1"/>
-    <col min="4100" max="4100" width="15.75" style="1" customWidth="1"/>
-    <col min="4101" max="4102" width="19" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="16.625" style="1" customWidth="1"/>
-    <col min="4104" max="4355" width="9" style="1"/>
-    <col min="4356" max="4356" width="15.75" style="1" customWidth="1"/>
-    <col min="4357" max="4358" width="19" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="16.625" style="1" customWidth="1"/>
-    <col min="4360" max="4611" width="9" style="1"/>
-    <col min="4612" max="4612" width="15.75" style="1" customWidth="1"/>
-    <col min="4613" max="4614" width="19" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="16.625" style="1" customWidth="1"/>
-    <col min="4616" max="4867" width="9" style="1"/>
-    <col min="4868" max="4868" width="15.75" style="1" customWidth="1"/>
-    <col min="4869" max="4870" width="19" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="16.625" style="1" customWidth="1"/>
-    <col min="4872" max="5123" width="9" style="1"/>
-    <col min="5124" max="5124" width="15.75" style="1" customWidth="1"/>
-    <col min="5125" max="5126" width="19" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="16.625" style="1" customWidth="1"/>
-    <col min="5128" max="5379" width="9" style="1"/>
-    <col min="5380" max="5380" width="15.75" style="1" customWidth="1"/>
-    <col min="5381" max="5382" width="19" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="16.625" style="1" customWidth="1"/>
-    <col min="5384" max="5635" width="9" style="1"/>
-    <col min="5636" max="5636" width="15.75" style="1" customWidth="1"/>
-    <col min="5637" max="5638" width="19" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="16.625" style="1" customWidth="1"/>
-    <col min="5640" max="5891" width="9" style="1"/>
-    <col min="5892" max="5892" width="15.75" style="1" customWidth="1"/>
-    <col min="5893" max="5894" width="19" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="16.625" style="1" customWidth="1"/>
-    <col min="5896" max="6147" width="9" style="1"/>
-    <col min="6148" max="6148" width="15.75" style="1" customWidth="1"/>
-    <col min="6149" max="6150" width="19" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="16.625" style="1" customWidth="1"/>
-    <col min="6152" max="6403" width="9" style="1"/>
-    <col min="6404" max="6404" width="15.75" style="1" customWidth="1"/>
-    <col min="6405" max="6406" width="19" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="16.625" style="1" customWidth="1"/>
-    <col min="6408" max="6659" width="9" style="1"/>
-    <col min="6660" max="6660" width="15.75" style="1" customWidth="1"/>
-    <col min="6661" max="6662" width="19" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="16.625" style="1" customWidth="1"/>
-    <col min="6664" max="6915" width="9" style="1"/>
-    <col min="6916" max="6916" width="15.75" style="1" customWidth="1"/>
-    <col min="6917" max="6918" width="19" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="16.625" style="1" customWidth="1"/>
-    <col min="6920" max="7171" width="9" style="1"/>
-    <col min="7172" max="7172" width="15.75" style="1" customWidth="1"/>
-    <col min="7173" max="7174" width="19" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="16.625" style="1" customWidth="1"/>
-    <col min="7176" max="7427" width="9" style="1"/>
-    <col min="7428" max="7428" width="15.75" style="1" customWidth="1"/>
-    <col min="7429" max="7430" width="19" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="16.625" style="1" customWidth="1"/>
-    <col min="7432" max="7683" width="9" style="1"/>
-    <col min="7684" max="7684" width="15.75" style="1" customWidth="1"/>
-    <col min="7685" max="7686" width="19" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="16.625" style="1" customWidth="1"/>
-    <col min="7688" max="7939" width="9" style="1"/>
-    <col min="7940" max="7940" width="15.75" style="1" customWidth="1"/>
-    <col min="7941" max="7942" width="19" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="16.625" style="1" customWidth="1"/>
-    <col min="7944" max="8195" width="9" style="1"/>
-    <col min="8196" max="8196" width="15.75" style="1" customWidth="1"/>
-    <col min="8197" max="8198" width="19" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="16.625" style="1" customWidth="1"/>
-    <col min="8200" max="8451" width="9" style="1"/>
-    <col min="8452" max="8452" width="15.75" style="1" customWidth="1"/>
-    <col min="8453" max="8454" width="19" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="16.625" style="1" customWidth="1"/>
-    <col min="8456" max="8707" width="9" style="1"/>
-    <col min="8708" max="8708" width="15.75" style="1" customWidth="1"/>
-    <col min="8709" max="8710" width="19" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="16.625" style="1" customWidth="1"/>
-    <col min="8712" max="8963" width="9" style="1"/>
-    <col min="8964" max="8964" width="15.75" style="1" customWidth="1"/>
-    <col min="8965" max="8966" width="19" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="16.625" style="1" customWidth="1"/>
-    <col min="8968" max="9219" width="9" style="1"/>
-    <col min="9220" max="9220" width="15.75" style="1" customWidth="1"/>
-    <col min="9221" max="9222" width="19" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="16.625" style="1" customWidth="1"/>
-    <col min="9224" max="9475" width="9" style="1"/>
-    <col min="9476" max="9476" width="15.75" style="1" customWidth="1"/>
-    <col min="9477" max="9478" width="19" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="16.625" style="1" customWidth="1"/>
-    <col min="9480" max="9731" width="9" style="1"/>
-    <col min="9732" max="9732" width="15.75" style="1" customWidth="1"/>
-    <col min="9733" max="9734" width="19" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="16.625" style="1" customWidth="1"/>
-    <col min="9736" max="9987" width="9" style="1"/>
-    <col min="9988" max="9988" width="15.75" style="1" customWidth="1"/>
-    <col min="9989" max="9990" width="19" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="16.625" style="1" customWidth="1"/>
-    <col min="9992" max="10243" width="9" style="1"/>
-    <col min="10244" max="10244" width="15.75" style="1" customWidth="1"/>
-    <col min="10245" max="10246" width="19" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="16.625" style="1" customWidth="1"/>
-    <col min="10248" max="10499" width="9" style="1"/>
-    <col min="10500" max="10500" width="15.75" style="1" customWidth="1"/>
-    <col min="10501" max="10502" width="19" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="16.625" style="1" customWidth="1"/>
-    <col min="10504" max="10755" width="9" style="1"/>
-    <col min="10756" max="10756" width="15.75" style="1" customWidth="1"/>
-    <col min="10757" max="10758" width="19" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="16.625" style="1" customWidth="1"/>
-    <col min="10760" max="11011" width="9" style="1"/>
-    <col min="11012" max="11012" width="15.75" style="1" customWidth="1"/>
-    <col min="11013" max="11014" width="19" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="16.625" style="1" customWidth="1"/>
-    <col min="11016" max="11267" width="9" style="1"/>
-    <col min="11268" max="11268" width="15.75" style="1" customWidth="1"/>
-    <col min="11269" max="11270" width="19" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="16.625" style="1" customWidth="1"/>
-    <col min="11272" max="11523" width="9" style="1"/>
-    <col min="11524" max="11524" width="15.75" style="1" customWidth="1"/>
-    <col min="11525" max="11526" width="19" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="16.625" style="1" customWidth="1"/>
-    <col min="11528" max="11779" width="9" style="1"/>
-    <col min="11780" max="11780" width="15.75" style="1" customWidth="1"/>
-    <col min="11781" max="11782" width="19" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="16.625" style="1" customWidth="1"/>
-    <col min="11784" max="12035" width="9" style="1"/>
-    <col min="12036" max="12036" width="15.75" style="1" customWidth="1"/>
-    <col min="12037" max="12038" width="19" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="16.625" style="1" customWidth="1"/>
-    <col min="12040" max="12291" width="9" style="1"/>
-    <col min="12292" max="12292" width="15.75" style="1" customWidth="1"/>
-    <col min="12293" max="12294" width="19" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="16.625" style="1" customWidth="1"/>
-    <col min="12296" max="12547" width="9" style="1"/>
-    <col min="12548" max="12548" width="15.75" style="1" customWidth="1"/>
-    <col min="12549" max="12550" width="19" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="16.625" style="1" customWidth="1"/>
-    <col min="12552" max="12803" width="9" style="1"/>
-    <col min="12804" max="12804" width="15.75" style="1" customWidth="1"/>
-    <col min="12805" max="12806" width="19" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="16.625" style="1" customWidth="1"/>
-    <col min="12808" max="13059" width="9" style="1"/>
-    <col min="13060" max="13060" width="15.75" style="1" customWidth="1"/>
-    <col min="13061" max="13062" width="19" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="16.625" style="1" customWidth="1"/>
-    <col min="13064" max="13315" width="9" style="1"/>
-    <col min="13316" max="13316" width="15.75" style="1" customWidth="1"/>
-    <col min="13317" max="13318" width="19" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="16.625" style="1" customWidth="1"/>
-    <col min="13320" max="13571" width="9" style="1"/>
-    <col min="13572" max="13572" width="15.75" style="1" customWidth="1"/>
-    <col min="13573" max="13574" width="19" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="16.625" style="1" customWidth="1"/>
-    <col min="13576" max="13827" width="9" style="1"/>
-    <col min="13828" max="13828" width="15.75" style="1" customWidth="1"/>
-    <col min="13829" max="13830" width="19" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="16.625" style="1" customWidth="1"/>
-    <col min="13832" max="14083" width="9" style="1"/>
-    <col min="14084" max="14084" width="15.75" style="1" customWidth="1"/>
-    <col min="14085" max="14086" width="19" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="16.625" style="1" customWidth="1"/>
-    <col min="14088" max="14339" width="9" style="1"/>
-    <col min="14340" max="14340" width="15.75" style="1" customWidth="1"/>
-    <col min="14341" max="14342" width="19" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="16.625" style="1" customWidth="1"/>
-    <col min="14344" max="14595" width="9" style="1"/>
-    <col min="14596" max="14596" width="15.75" style="1" customWidth="1"/>
-    <col min="14597" max="14598" width="19" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="16.625" style="1" customWidth="1"/>
-    <col min="14600" max="14851" width="9" style="1"/>
-    <col min="14852" max="14852" width="15.75" style="1" customWidth="1"/>
-    <col min="14853" max="14854" width="19" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="16.625" style="1" customWidth="1"/>
-    <col min="14856" max="15107" width="9" style="1"/>
-    <col min="15108" max="15108" width="15.75" style="1" customWidth="1"/>
-    <col min="15109" max="15110" width="19" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="16.625" style="1" customWidth="1"/>
-    <col min="15112" max="15363" width="9" style="1"/>
-    <col min="15364" max="15364" width="15.75" style="1" customWidth="1"/>
-    <col min="15365" max="15366" width="19" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="16.625" style="1" customWidth="1"/>
-    <col min="15368" max="15619" width="9" style="1"/>
-    <col min="15620" max="15620" width="15.75" style="1" customWidth="1"/>
-    <col min="15621" max="15622" width="19" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="16.625" style="1" customWidth="1"/>
-    <col min="15624" max="15875" width="9" style="1"/>
-    <col min="15876" max="15876" width="15.75" style="1" customWidth="1"/>
-    <col min="15877" max="15878" width="19" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="16.625" style="1" customWidth="1"/>
-    <col min="15880" max="16131" width="9" style="1"/>
-    <col min="16132" max="16132" width="15.75" style="1" customWidth="1"/>
-    <col min="16133" max="16134" width="19" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="16.625" style="1" customWidth="1"/>
-    <col min="16136" max="16384" width="9" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="10.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="3.625" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="1" width="13.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="4.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="9.625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="4.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="9.625" collapsed="true"/>
+    <col min="10" max="259" style="1" width="9.0" collapsed="true"/>
+    <col min="260" max="260" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="261" max="262" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="263" max="263" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="264" max="515" style="1" width="9.0" collapsed="true"/>
+    <col min="516" max="516" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="517" max="518" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="519" max="519" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="520" max="771" style="1" width="9.0" collapsed="true"/>
+    <col min="772" max="772" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="773" max="774" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="775" max="775" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="776" max="1027" style="1" width="9.0" collapsed="true"/>
+    <col min="1028" max="1028" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="1029" max="1030" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="1031" max="1031" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="1032" max="1283" style="1" width="9.0" collapsed="true"/>
+    <col min="1284" max="1284" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="1285" max="1286" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="1287" max="1287" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="1288" max="1539" style="1" width="9.0" collapsed="true"/>
+    <col min="1540" max="1540" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="1541" max="1542" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="1543" max="1543" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="1544" max="1795" style="1" width="9.0" collapsed="true"/>
+    <col min="1796" max="1796" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="1797" max="1798" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="1799" max="1799" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="1800" max="2051" style="1" width="9.0" collapsed="true"/>
+    <col min="2052" max="2052" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="2053" max="2054" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="2055" max="2055" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="2056" max="2307" style="1" width="9.0" collapsed="true"/>
+    <col min="2308" max="2308" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="2309" max="2310" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="2311" max="2311" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="2312" max="2563" style="1" width="9.0" collapsed="true"/>
+    <col min="2564" max="2564" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="2565" max="2566" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="2567" max="2567" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="2568" max="2819" style="1" width="9.0" collapsed="true"/>
+    <col min="2820" max="2820" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="2821" max="2822" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="2823" max="2823" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="2824" max="3075" style="1" width="9.0" collapsed="true"/>
+    <col min="3076" max="3076" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="3077" max="3078" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="3079" max="3079" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="3080" max="3331" style="1" width="9.0" collapsed="true"/>
+    <col min="3332" max="3332" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="3333" max="3334" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="3335" max="3335" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="3336" max="3587" style="1" width="9.0" collapsed="true"/>
+    <col min="3588" max="3588" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="3589" max="3590" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="3591" max="3591" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="3592" max="3843" style="1" width="9.0" collapsed="true"/>
+    <col min="3844" max="3844" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="3845" max="3846" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="3847" max="3847" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="3848" max="4099" style="1" width="9.0" collapsed="true"/>
+    <col min="4100" max="4100" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="4101" max="4102" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="4103" max="4103" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="4104" max="4355" style="1" width="9.0" collapsed="true"/>
+    <col min="4356" max="4356" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="4357" max="4358" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="4359" max="4359" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="4360" max="4611" style="1" width="9.0" collapsed="true"/>
+    <col min="4612" max="4612" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="4613" max="4614" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="4615" max="4615" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="4616" max="4867" style="1" width="9.0" collapsed="true"/>
+    <col min="4868" max="4868" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="4869" max="4870" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="4871" max="4871" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="4872" max="5123" style="1" width="9.0" collapsed="true"/>
+    <col min="5124" max="5124" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="5125" max="5126" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="5127" max="5127" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="5128" max="5379" style="1" width="9.0" collapsed="true"/>
+    <col min="5380" max="5380" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="5381" max="5382" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="5383" max="5383" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="5384" max="5635" style="1" width="9.0" collapsed="true"/>
+    <col min="5636" max="5636" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="5637" max="5638" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="5639" max="5639" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="5640" max="5891" style="1" width="9.0" collapsed="true"/>
+    <col min="5892" max="5892" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="5893" max="5894" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="5895" max="5895" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="5896" max="6147" style="1" width="9.0" collapsed="true"/>
+    <col min="6148" max="6148" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="6149" max="6150" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="6151" max="6151" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="6152" max="6403" style="1" width="9.0" collapsed="true"/>
+    <col min="6404" max="6404" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="6405" max="6406" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="6407" max="6407" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="6408" max="6659" style="1" width="9.0" collapsed="true"/>
+    <col min="6660" max="6660" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="6661" max="6662" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="6663" max="6663" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="6664" max="6915" style="1" width="9.0" collapsed="true"/>
+    <col min="6916" max="6916" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="6917" max="6918" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="6919" max="6919" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="6920" max="7171" style="1" width="9.0" collapsed="true"/>
+    <col min="7172" max="7172" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="7173" max="7174" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="7175" max="7175" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="7176" max="7427" style="1" width="9.0" collapsed="true"/>
+    <col min="7428" max="7428" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="7429" max="7430" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="7431" max="7431" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="7432" max="7683" style="1" width="9.0" collapsed="true"/>
+    <col min="7684" max="7684" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="7685" max="7686" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="7687" max="7687" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="7688" max="7939" style="1" width="9.0" collapsed="true"/>
+    <col min="7940" max="7940" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="7941" max="7942" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="7943" max="7943" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="7944" max="8195" style="1" width="9.0" collapsed="true"/>
+    <col min="8196" max="8196" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="8197" max="8198" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="8199" max="8199" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="8200" max="8451" style="1" width="9.0" collapsed="true"/>
+    <col min="8452" max="8452" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="8453" max="8454" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="8455" max="8455" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="8456" max="8707" style="1" width="9.0" collapsed="true"/>
+    <col min="8708" max="8708" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="8709" max="8710" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="8711" max="8711" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="8712" max="8963" style="1" width="9.0" collapsed="true"/>
+    <col min="8964" max="8964" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="8965" max="8966" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="8967" max="8967" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="8968" max="9219" style="1" width="9.0" collapsed="true"/>
+    <col min="9220" max="9220" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="9221" max="9222" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="9223" max="9223" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="9224" max="9475" style="1" width="9.0" collapsed="true"/>
+    <col min="9476" max="9476" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="9477" max="9478" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="9479" max="9479" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="9480" max="9731" style="1" width="9.0" collapsed="true"/>
+    <col min="9732" max="9732" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="9733" max="9734" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="9735" max="9735" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="9736" max="9987" style="1" width="9.0" collapsed="true"/>
+    <col min="9988" max="9988" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="9989" max="9990" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="9991" max="9991" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="9992" max="10243" style="1" width="9.0" collapsed="true"/>
+    <col min="10244" max="10244" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="10245" max="10246" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="10247" max="10247" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="10248" max="10499" style="1" width="9.0" collapsed="true"/>
+    <col min="10500" max="10500" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="10501" max="10502" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="10503" max="10503" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="10504" max="10755" style="1" width="9.0" collapsed="true"/>
+    <col min="10756" max="10756" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="10757" max="10758" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="10759" max="10759" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="10760" max="11011" style="1" width="9.0" collapsed="true"/>
+    <col min="11012" max="11012" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="11013" max="11014" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="11015" max="11015" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="11016" max="11267" style="1" width="9.0" collapsed="true"/>
+    <col min="11268" max="11268" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="11269" max="11270" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="11271" max="11271" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="11272" max="11523" style="1" width="9.0" collapsed="true"/>
+    <col min="11524" max="11524" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="11525" max="11526" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="11527" max="11527" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="11528" max="11779" style="1" width="9.0" collapsed="true"/>
+    <col min="11780" max="11780" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="11781" max="11782" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="11783" max="11783" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="11784" max="12035" style="1" width="9.0" collapsed="true"/>
+    <col min="12036" max="12036" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="12037" max="12038" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="12039" max="12039" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="12040" max="12291" style="1" width="9.0" collapsed="true"/>
+    <col min="12292" max="12292" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="12293" max="12294" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="12295" max="12295" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="12296" max="12547" style="1" width="9.0" collapsed="true"/>
+    <col min="12548" max="12548" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="12549" max="12550" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="12551" max="12551" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="12552" max="12803" style="1" width="9.0" collapsed="true"/>
+    <col min="12804" max="12804" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="12805" max="12806" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="12807" max="12807" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="12808" max="13059" style="1" width="9.0" collapsed="true"/>
+    <col min="13060" max="13060" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="13061" max="13062" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="13063" max="13063" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="13064" max="13315" style="1" width="9.0" collapsed="true"/>
+    <col min="13316" max="13316" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="13317" max="13318" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="13319" max="13319" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="13320" max="13571" style="1" width="9.0" collapsed="true"/>
+    <col min="13572" max="13572" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="13573" max="13574" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="13575" max="13575" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="13576" max="13827" style="1" width="9.0" collapsed="true"/>
+    <col min="13828" max="13828" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="13829" max="13830" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="13831" max="13831" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="13832" max="14083" style="1" width="9.0" collapsed="true"/>
+    <col min="14084" max="14084" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="14085" max="14086" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="14087" max="14087" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="14088" max="14339" style="1" width="9.0" collapsed="true"/>
+    <col min="14340" max="14340" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="14341" max="14342" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="14343" max="14343" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="14344" max="14595" style="1" width="9.0" collapsed="true"/>
+    <col min="14596" max="14596" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="14597" max="14598" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="14599" max="14599" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="14600" max="14851" style="1" width="9.0" collapsed="true"/>
+    <col min="14852" max="14852" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="14853" max="14854" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="14855" max="14855" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="14856" max="15107" style="1" width="9.0" collapsed="true"/>
+    <col min="15108" max="15108" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="15109" max="15110" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="15111" max="15111" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="15112" max="15363" style="1" width="9.0" collapsed="true"/>
+    <col min="15364" max="15364" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="15365" max="15366" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="15367" max="15367" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="15368" max="15619" style="1" width="9.0" collapsed="true"/>
+    <col min="15620" max="15620" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="15621" max="15622" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="15623" max="15623" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="15624" max="15875" style="1" width="9.0" collapsed="true"/>
+    <col min="15876" max="15876" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="15877" max="15878" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="15879" max="15879" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="15880" max="16131" style="1" width="9.0" collapsed="true"/>
+    <col min="16132" max="16132" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="16133" max="16134" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="16135" max="16135" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="16136" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -1476,7 +1500,9 @@
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1614,11 +1640,19 @@
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="I16" s="46"/>
       <c r="J16" s="3"/>
     </row>
@@ -1628,11 +1662,19 @@
       </c>
       <c r="B17" s="51"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="H17" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="I17" s="47"/>
       <c r="J17" s="3"/>
     </row>
@@ -1642,11 +1684,19 @@
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="38"/>
+      <c r="D18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="I18" s="46"/>
       <c r="J18" s="3"/>
     </row>
@@ -1656,11 +1706,19 @@
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="I19" s="47"/>
       <c r="J19" s="3"/>
     </row>
@@ -1934,268 +1992,268 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="3.625" style="20" customWidth="1"/>
-    <col min="5" max="6" width="13.625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="4.625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="20" customWidth="1"/>
-    <col min="11" max="260" width="9" style="20"/>
-    <col min="261" max="261" width="15.75" style="20" customWidth="1"/>
-    <col min="262" max="263" width="19" style="20" customWidth="1"/>
-    <col min="264" max="264" width="16.625" style="20" customWidth="1"/>
-    <col min="265" max="516" width="9" style="20"/>
-    <col min="517" max="517" width="15.75" style="20" customWidth="1"/>
-    <col min="518" max="519" width="19" style="20" customWidth="1"/>
-    <col min="520" max="520" width="16.625" style="20" customWidth="1"/>
-    <col min="521" max="772" width="9" style="20"/>
-    <col min="773" max="773" width="15.75" style="20" customWidth="1"/>
-    <col min="774" max="775" width="19" style="20" customWidth="1"/>
-    <col min="776" max="776" width="16.625" style="20" customWidth="1"/>
-    <col min="777" max="1028" width="9" style="20"/>
-    <col min="1029" max="1029" width="15.75" style="20" customWidth="1"/>
-    <col min="1030" max="1031" width="19" style="20" customWidth="1"/>
-    <col min="1032" max="1032" width="16.625" style="20" customWidth="1"/>
-    <col min="1033" max="1284" width="9" style="20"/>
-    <col min="1285" max="1285" width="15.75" style="20" customWidth="1"/>
-    <col min="1286" max="1287" width="19" style="20" customWidth="1"/>
-    <col min="1288" max="1288" width="16.625" style="20" customWidth="1"/>
-    <col min="1289" max="1540" width="9" style="20"/>
-    <col min="1541" max="1541" width="15.75" style="20" customWidth="1"/>
-    <col min="1542" max="1543" width="19" style="20" customWidth="1"/>
-    <col min="1544" max="1544" width="16.625" style="20" customWidth="1"/>
-    <col min="1545" max="1796" width="9" style="20"/>
-    <col min="1797" max="1797" width="15.75" style="20" customWidth="1"/>
-    <col min="1798" max="1799" width="19" style="20" customWidth="1"/>
-    <col min="1800" max="1800" width="16.625" style="20" customWidth="1"/>
-    <col min="1801" max="2052" width="9" style="20"/>
-    <col min="2053" max="2053" width="15.75" style="20" customWidth="1"/>
-    <col min="2054" max="2055" width="19" style="20" customWidth="1"/>
-    <col min="2056" max="2056" width="16.625" style="20" customWidth="1"/>
-    <col min="2057" max="2308" width="9" style="20"/>
-    <col min="2309" max="2309" width="15.75" style="20" customWidth="1"/>
-    <col min="2310" max="2311" width="19" style="20" customWidth="1"/>
-    <col min="2312" max="2312" width="16.625" style="20" customWidth="1"/>
-    <col min="2313" max="2564" width="9" style="20"/>
-    <col min="2565" max="2565" width="15.75" style="20" customWidth="1"/>
-    <col min="2566" max="2567" width="19" style="20" customWidth="1"/>
-    <col min="2568" max="2568" width="16.625" style="20" customWidth="1"/>
-    <col min="2569" max="2820" width="9" style="20"/>
-    <col min="2821" max="2821" width="15.75" style="20" customWidth="1"/>
-    <col min="2822" max="2823" width="19" style="20" customWidth="1"/>
-    <col min="2824" max="2824" width="16.625" style="20" customWidth="1"/>
-    <col min="2825" max="3076" width="9" style="20"/>
-    <col min="3077" max="3077" width="15.75" style="20" customWidth="1"/>
-    <col min="3078" max="3079" width="19" style="20" customWidth="1"/>
-    <col min="3080" max="3080" width="16.625" style="20" customWidth="1"/>
-    <col min="3081" max="3332" width="9" style="20"/>
-    <col min="3333" max="3333" width="15.75" style="20" customWidth="1"/>
-    <col min="3334" max="3335" width="19" style="20" customWidth="1"/>
-    <col min="3336" max="3336" width="16.625" style="20" customWidth="1"/>
-    <col min="3337" max="3588" width="9" style="20"/>
-    <col min="3589" max="3589" width="15.75" style="20" customWidth="1"/>
-    <col min="3590" max="3591" width="19" style="20" customWidth="1"/>
-    <col min="3592" max="3592" width="16.625" style="20" customWidth="1"/>
-    <col min="3593" max="3844" width="9" style="20"/>
-    <col min="3845" max="3845" width="15.75" style="20" customWidth="1"/>
-    <col min="3846" max="3847" width="19" style="20" customWidth="1"/>
-    <col min="3848" max="3848" width="16.625" style="20" customWidth="1"/>
-    <col min="3849" max="4100" width="9" style="20"/>
-    <col min="4101" max="4101" width="15.75" style="20" customWidth="1"/>
-    <col min="4102" max="4103" width="19" style="20" customWidth="1"/>
-    <col min="4104" max="4104" width="16.625" style="20" customWidth="1"/>
-    <col min="4105" max="4356" width="9" style="20"/>
-    <col min="4357" max="4357" width="15.75" style="20" customWidth="1"/>
-    <col min="4358" max="4359" width="19" style="20" customWidth="1"/>
-    <col min="4360" max="4360" width="16.625" style="20" customWidth="1"/>
-    <col min="4361" max="4612" width="9" style="20"/>
-    <col min="4613" max="4613" width="15.75" style="20" customWidth="1"/>
-    <col min="4614" max="4615" width="19" style="20" customWidth="1"/>
-    <col min="4616" max="4616" width="16.625" style="20" customWidth="1"/>
-    <col min="4617" max="4868" width="9" style="20"/>
-    <col min="4869" max="4869" width="15.75" style="20" customWidth="1"/>
-    <col min="4870" max="4871" width="19" style="20" customWidth="1"/>
-    <col min="4872" max="4872" width="16.625" style="20" customWidth="1"/>
-    <col min="4873" max="5124" width="9" style="20"/>
-    <col min="5125" max="5125" width="15.75" style="20" customWidth="1"/>
-    <col min="5126" max="5127" width="19" style="20" customWidth="1"/>
-    <col min="5128" max="5128" width="16.625" style="20" customWidth="1"/>
-    <col min="5129" max="5380" width="9" style="20"/>
-    <col min="5381" max="5381" width="15.75" style="20" customWidth="1"/>
-    <col min="5382" max="5383" width="19" style="20" customWidth="1"/>
-    <col min="5384" max="5384" width="16.625" style="20" customWidth="1"/>
-    <col min="5385" max="5636" width="9" style="20"/>
-    <col min="5637" max="5637" width="15.75" style="20" customWidth="1"/>
-    <col min="5638" max="5639" width="19" style="20" customWidth="1"/>
-    <col min="5640" max="5640" width="16.625" style="20" customWidth="1"/>
-    <col min="5641" max="5892" width="9" style="20"/>
-    <col min="5893" max="5893" width="15.75" style="20" customWidth="1"/>
-    <col min="5894" max="5895" width="19" style="20" customWidth="1"/>
-    <col min="5896" max="5896" width="16.625" style="20" customWidth="1"/>
-    <col min="5897" max="6148" width="9" style="20"/>
-    <col min="6149" max="6149" width="15.75" style="20" customWidth="1"/>
-    <col min="6150" max="6151" width="19" style="20" customWidth="1"/>
-    <col min="6152" max="6152" width="16.625" style="20" customWidth="1"/>
-    <col min="6153" max="6404" width="9" style="20"/>
-    <col min="6405" max="6405" width="15.75" style="20" customWidth="1"/>
-    <col min="6406" max="6407" width="19" style="20" customWidth="1"/>
-    <col min="6408" max="6408" width="16.625" style="20" customWidth="1"/>
-    <col min="6409" max="6660" width="9" style="20"/>
-    <col min="6661" max="6661" width="15.75" style="20" customWidth="1"/>
-    <col min="6662" max="6663" width="19" style="20" customWidth="1"/>
-    <col min="6664" max="6664" width="16.625" style="20" customWidth="1"/>
-    <col min="6665" max="6916" width="9" style="20"/>
-    <col min="6917" max="6917" width="15.75" style="20" customWidth="1"/>
-    <col min="6918" max="6919" width="19" style="20" customWidth="1"/>
-    <col min="6920" max="6920" width="16.625" style="20" customWidth="1"/>
-    <col min="6921" max="7172" width="9" style="20"/>
-    <col min="7173" max="7173" width="15.75" style="20" customWidth="1"/>
-    <col min="7174" max="7175" width="19" style="20" customWidth="1"/>
-    <col min="7176" max="7176" width="16.625" style="20" customWidth="1"/>
-    <col min="7177" max="7428" width="9" style="20"/>
-    <col min="7429" max="7429" width="15.75" style="20" customWidth="1"/>
-    <col min="7430" max="7431" width="19" style="20" customWidth="1"/>
-    <col min="7432" max="7432" width="16.625" style="20" customWidth="1"/>
-    <col min="7433" max="7684" width="9" style="20"/>
-    <col min="7685" max="7685" width="15.75" style="20" customWidth="1"/>
-    <col min="7686" max="7687" width="19" style="20" customWidth="1"/>
-    <col min="7688" max="7688" width="16.625" style="20" customWidth="1"/>
-    <col min="7689" max="7940" width="9" style="20"/>
-    <col min="7941" max="7941" width="15.75" style="20" customWidth="1"/>
-    <col min="7942" max="7943" width="19" style="20" customWidth="1"/>
-    <col min="7944" max="7944" width="16.625" style="20" customWidth="1"/>
-    <col min="7945" max="8196" width="9" style="20"/>
-    <col min="8197" max="8197" width="15.75" style="20" customWidth="1"/>
-    <col min="8198" max="8199" width="19" style="20" customWidth="1"/>
-    <col min="8200" max="8200" width="16.625" style="20" customWidth="1"/>
-    <col min="8201" max="8452" width="9" style="20"/>
-    <col min="8453" max="8453" width="15.75" style="20" customWidth="1"/>
-    <col min="8454" max="8455" width="19" style="20" customWidth="1"/>
-    <col min="8456" max="8456" width="16.625" style="20" customWidth="1"/>
-    <col min="8457" max="8708" width="9" style="20"/>
-    <col min="8709" max="8709" width="15.75" style="20" customWidth="1"/>
-    <col min="8710" max="8711" width="19" style="20" customWidth="1"/>
-    <col min="8712" max="8712" width="16.625" style="20" customWidth="1"/>
-    <col min="8713" max="8964" width="9" style="20"/>
-    <col min="8965" max="8965" width="15.75" style="20" customWidth="1"/>
-    <col min="8966" max="8967" width="19" style="20" customWidth="1"/>
-    <col min="8968" max="8968" width="16.625" style="20" customWidth="1"/>
-    <col min="8969" max="9220" width="9" style="20"/>
-    <col min="9221" max="9221" width="15.75" style="20" customWidth="1"/>
-    <col min="9222" max="9223" width="19" style="20" customWidth="1"/>
-    <col min="9224" max="9224" width="16.625" style="20" customWidth="1"/>
-    <col min="9225" max="9476" width="9" style="20"/>
-    <col min="9477" max="9477" width="15.75" style="20" customWidth="1"/>
-    <col min="9478" max="9479" width="19" style="20" customWidth="1"/>
-    <col min="9480" max="9480" width="16.625" style="20" customWidth="1"/>
-    <col min="9481" max="9732" width="9" style="20"/>
-    <col min="9733" max="9733" width="15.75" style="20" customWidth="1"/>
-    <col min="9734" max="9735" width="19" style="20" customWidth="1"/>
-    <col min="9736" max="9736" width="16.625" style="20" customWidth="1"/>
-    <col min="9737" max="9988" width="9" style="20"/>
-    <col min="9989" max="9989" width="15.75" style="20" customWidth="1"/>
-    <col min="9990" max="9991" width="19" style="20" customWidth="1"/>
-    <col min="9992" max="9992" width="16.625" style="20" customWidth="1"/>
-    <col min="9993" max="10244" width="9" style="20"/>
-    <col min="10245" max="10245" width="15.75" style="20" customWidth="1"/>
-    <col min="10246" max="10247" width="19" style="20" customWidth="1"/>
-    <col min="10248" max="10248" width="16.625" style="20" customWidth="1"/>
-    <col min="10249" max="10500" width="9" style="20"/>
-    <col min="10501" max="10501" width="15.75" style="20" customWidth="1"/>
-    <col min="10502" max="10503" width="19" style="20" customWidth="1"/>
-    <col min="10504" max="10504" width="16.625" style="20" customWidth="1"/>
-    <col min="10505" max="10756" width="9" style="20"/>
-    <col min="10757" max="10757" width="15.75" style="20" customWidth="1"/>
-    <col min="10758" max="10759" width="19" style="20" customWidth="1"/>
-    <col min="10760" max="10760" width="16.625" style="20" customWidth="1"/>
-    <col min="10761" max="11012" width="9" style="20"/>
-    <col min="11013" max="11013" width="15.75" style="20" customWidth="1"/>
-    <col min="11014" max="11015" width="19" style="20" customWidth="1"/>
-    <col min="11016" max="11016" width="16.625" style="20" customWidth="1"/>
-    <col min="11017" max="11268" width="9" style="20"/>
-    <col min="11269" max="11269" width="15.75" style="20" customWidth="1"/>
-    <col min="11270" max="11271" width="19" style="20" customWidth="1"/>
-    <col min="11272" max="11272" width="16.625" style="20" customWidth="1"/>
-    <col min="11273" max="11524" width="9" style="20"/>
-    <col min="11525" max="11525" width="15.75" style="20" customWidth="1"/>
-    <col min="11526" max="11527" width="19" style="20" customWidth="1"/>
-    <col min="11528" max="11528" width="16.625" style="20" customWidth="1"/>
-    <col min="11529" max="11780" width="9" style="20"/>
-    <col min="11781" max="11781" width="15.75" style="20" customWidth="1"/>
-    <col min="11782" max="11783" width="19" style="20" customWidth="1"/>
-    <col min="11784" max="11784" width="16.625" style="20" customWidth="1"/>
-    <col min="11785" max="12036" width="9" style="20"/>
-    <col min="12037" max="12037" width="15.75" style="20" customWidth="1"/>
-    <col min="12038" max="12039" width="19" style="20" customWidth="1"/>
-    <col min="12040" max="12040" width="16.625" style="20" customWidth="1"/>
-    <col min="12041" max="12292" width="9" style="20"/>
-    <col min="12293" max="12293" width="15.75" style="20" customWidth="1"/>
-    <col min="12294" max="12295" width="19" style="20" customWidth="1"/>
-    <col min="12296" max="12296" width="16.625" style="20" customWidth="1"/>
-    <col min="12297" max="12548" width="9" style="20"/>
-    <col min="12549" max="12549" width="15.75" style="20" customWidth="1"/>
-    <col min="12550" max="12551" width="19" style="20" customWidth="1"/>
-    <col min="12552" max="12552" width="16.625" style="20" customWidth="1"/>
-    <col min="12553" max="12804" width="9" style="20"/>
-    <col min="12805" max="12805" width="15.75" style="20" customWidth="1"/>
-    <col min="12806" max="12807" width="19" style="20" customWidth="1"/>
-    <col min="12808" max="12808" width="16.625" style="20" customWidth="1"/>
-    <col min="12809" max="13060" width="9" style="20"/>
-    <col min="13061" max="13061" width="15.75" style="20" customWidth="1"/>
-    <col min="13062" max="13063" width="19" style="20" customWidth="1"/>
-    <col min="13064" max="13064" width="16.625" style="20" customWidth="1"/>
-    <col min="13065" max="13316" width="9" style="20"/>
-    <col min="13317" max="13317" width="15.75" style="20" customWidth="1"/>
-    <col min="13318" max="13319" width="19" style="20" customWidth="1"/>
-    <col min="13320" max="13320" width="16.625" style="20" customWidth="1"/>
-    <col min="13321" max="13572" width="9" style="20"/>
-    <col min="13573" max="13573" width="15.75" style="20" customWidth="1"/>
-    <col min="13574" max="13575" width="19" style="20" customWidth="1"/>
-    <col min="13576" max="13576" width="16.625" style="20" customWidth="1"/>
-    <col min="13577" max="13828" width="9" style="20"/>
-    <col min="13829" max="13829" width="15.75" style="20" customWidth="1"/>
-    <col min="13830" max="13831" width="19" style="20" customWidth="1"/>
-    <col min="13832" max="13832" width="16.625" style="20" customWidth="1"/>
-    <col min="13833" max="14084" width="9" style="20"/>
-    <col min="14085" max="14085" width="15.75" style="20" customWidth="1"/>
-    <col min="14086" max="14087" width="19" style="20" customWidth="1"/>
-    <col min="14088" max="14088" width="16.625" style="20" customWidth="1"/>
-    <col min="14089" max="14340" width="9" style="20"/>
-    <col min="14341" max="14341" width="15.75" style="20" customWidth="1"/>
-    <col min="14342" max="14343" width="19" style="20" customWidth="1"/>
-    <col min="14344" max="14344" width="16.625" style="20" customWidth="1"/>
-    <col min="14345" max="14596" width="9" style="20"/>
-    <col min="14597" max="14597" width="15.75" style="20" customWidth="1"/>
-    <col min="14598" max="14599" width="19" style="20" customWidth="1"/>
-    <col min="14600" max="14600" width="16.625" style="20" customWidth="1"/>
-    <col min="14601" max="14852" width="9" style="20"/>
-    <col min="14853" max="14853" width="15.75" style="20" customWidth="1"/>
-    <col min="14854" max="14855" width="19" style="20" customWidth="1"/>
-    <col min="14856" max="14856" width="16.625" style="20" customWidth="1"/>
-    <col min="14857" max="15108" width="9" style="20"/>
-    <col min="15109" max="15109" width="15.75" style="20" customWidth="1"/>
-    <col min="15110" max="15111" width="19" style="20" customWidth="1"/>
-    <col min="15112" max="15112" width="16.625" style="20" customWidth="1"/>
-    <col min="15113" max="15364" width="9" style="20"/>
-    <col min="15365" max="15365" width="15.75" style="20" customWidth="1"/>
-    <col min="15366" max="15367" width="19" style="20" customWidth="1"/>
-    <col min="15368" max="15368" width="16.625" style="20" customWidth="1"/>
-    <col min="15369" max="15620" width="9" style="20"/>
-    <col min="15621" max="15621" width="15.75" style="20" customWidth="1"/>
-    <col min="15622" max="15623" width="19" style="20" customWidth="1"/>
-    <col min="15624" max="15624" width="16.625" style="20" customWidth="1"/>
-    <col min="15625" max="15876" width="9" style="20"/>
-    <col min="15877" max="15877" width="15.75" style="20" customWidth="1"/>
-    <col min="15878" max="15879" width="19" style="20" customWidth="1"/>
-    <col min="15880" max="15880" width="16.625" style="20" customWidth="1"/>
-    <col min="15881" max="16132" width="9" style="20"/>
-    <col min="16133" max="16133" width="15.75" style="20" customWidth="1"/>
-    <col min="16134" max="16135" width="19" style="20" customWidth="1"/>
-    <col min="16136" max="16136" width="16.625" style="20" customWidth="1"/>
-    <col min="16137" max="16384" width="9" style="20"/>
+    <col min="1" max="1" customWidth="true" style="20" width="10.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="20" width="3.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="20" width="10.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="20" width="3.625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="20" width="13.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="20" width="4.625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="20" width="9.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="20" width="4.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="20" width="9.625" collapsed="true"/>
+    <col min="11" max="260" style="20" width="9.0" collapsed="true"/>
+    <col min="261" max="261" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="262" max="263" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="264" max="264" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="265" max="516" style="20" width="9.0" collapsed="true"/>
+    <col min="517" max="517" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="518" max="519" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="520" max="520" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="521" max="772" style="20" width="9.0" collapsed="true"/>
+    <col min="773" max="773" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="774" max="775" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="776" max="776" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="777" max="1028" style="20" width="9.0" collapsed="true"/>
+    <col min="1029" max="1029" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="1030" max="1031" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="1032" max="1032" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="1033" max="1284" style="20" width="9.0" collapsed="true"/>
+    <col min="1285" max="1285" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="1286" max="1287" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="1288" max="1288" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="1289" max="1540" style="20" width="9.0" collapsed="true"/>
+    <col min="1541" max="1541" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="1542" max="1543" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="1544" max="1544" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="1545" max="1796" style="20" width="9.0" collapsed="true"/>
+    <col min="1797" max="1797" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="1798" max="1799" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="1800" max="1800" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="1801" max="2052" style="20" width="9.0" collapsed="true"/>
+    <col min="2053" max="2053" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="2054" max="2055" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="2056" max="2056" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="2057" max="2308" style="20" width="9.0" collapsed="true"/>
+    <col min="2309" max="2309" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="2310" max="2311" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="2312" max="2312" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="2313" max="2564" style="20" width="9.0" collapsed="true"/>
+    <col min="2565" max="2565" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="2566" max="2567" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="2568" max="2568" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="2569" max="2820" style="20" width="9.0" collapsed="true"/>
+    <col min="2821" max="2821" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="2822" max="2823" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="2824" max="2824" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="2825" max="3076" style="20" width="9.0" collapsed="true"/>
+    <col min="3077" max="3077" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="3078" max="3079" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="3080" max="3080" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="3081" max="3332" style="20" width="9.0" collapsed="true"/>
+    <col min="3333" max="3333" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="3334" max="3335" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="3336" max="3336" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="3337" max="3588" style="20" width="9.0" collapsed="true"/>
+    <col min="3589" max="3589" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="3590" max="3591" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="3592" max="3592" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="3593" max="3844" style="20" width="9.0" collapsed="true"/>
+    <col min="3845" max="3845" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="3846" max="3847" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="3848" max="3848" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="3849" max="4100" style="20" width="9.0" collapsed="true"/>
+    <col min="4101" max="4101" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="4102" max="4103" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="4104" max="4104" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="4105" max="4356" style="20" width="9.0" collapsed="true"/>
+    <col min="4357" max="4357" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="4358" max="4359" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="4360" max="4360" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="4361" max="4612" style="20" width="9.0" collapsed="true"/>
+    <col min="4613" max="4613" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="4614" max="4615" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="4616" max="4616" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="4617" max="4868" style="20" width="9.0" collapsed="true"/>
+    <col min="4869" max="4869" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="4870" max="4871" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="4872" max="4872" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="4873" max="5124" style="20" width="9.0" collapsed="true"/>
+    <col min="5125" max="5125" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="5126" max="5127" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="5128" max="5128" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="5129" max="5380" style="20" width="9.0" collapsed="true"/>
+    <col min="5381" max="5381" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="5382" max="5383" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="5384" max="5384" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="5385" max="5636" style="20" width="9.0" collapsed="true"/>
+    <col min="5637" max="5637" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="5638" max="5639" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="5640" max="5640" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="5641" max="5892" style="20" width="9.0" collapsed="true"/>
+    <col min="5893" max="5893" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="5894" max="5895" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="5896" max="5896" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="5897" max="6148" style="20" width="9.0" collapsed="true"/>
+    <col min="6149" max="6149" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="6150" max="6151" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="6152" max="6152" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="6153" max="6404" style="20" width="9.0" collapsed="true"/>
+    <col min="6405" max="6405" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="6406" max="6407" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="6408" max="6408" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="6409" max="6660" style="20" width="9.0" collapsed="true"/>
+    <col min="6661" max="6661" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="6662" max="6663" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="6664" max="6664" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="6665" max="6916" style="20" width="9.0" collapsed="true"/>
+    <col min="6917" max="6917" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="6918" max="6919" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="6920" max="6920" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="6921" max="7172" style="20" width="9.0" collapsed="true"/>
+    <col min="7173" max="7173" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="7174" max="7175" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="7176" max="7176" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="7177" max="7428" style="20" width="9.0" collapsed="true"/>
+    <col min="7429" max="7429" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="7430" max="7431" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="7432" max="7432" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="7433" max="7684" style="20" width="9.0" collapsed="true"/>
+    <col min="7685" max="7685" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="7686" max="7687" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="7688" max="7688" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="7689" max="7940" style="20" width="9.0" collapsed="true"/>
+    <col min="7941" max="7941" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="7942" max="7943" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="7944" max="7944" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="7945" max="8196" style="20" width="9.0" collapsed="true"/>
+    <col min="8197" max="8197" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="8198" max="8199" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="8200" max="8200" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="8201" max="8452" style="20" width="9.0" collapsed="true"/>
+    <col min="8453" max="8453" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="8454" max="8455" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="8456" max="8456" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="8457" max="8708" style="20" width="9.0" collapsed="true"/>
+    <col min="8709" max="8709" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="8710" max="8711" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="8712" max="8712" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="8713" max="8964" style="20" width="9.0" collapsed="true"/>
+    <col min="8965" max="8965" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="8966" max="8967" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="8968" max="8968" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="8969" max="9220" style="20" width="9.0" collapsed="true"/>
+    <col min="9221" max="9221" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="9222" max="9223" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="9224" max="9224" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="9225" max="9476" style="20" width="9.0" collapsed="true"/>
+    <col min="9477" max="9477" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="9478" max="9479" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="9480" max="9480" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="9481" max="9732" style="20" width="9.0" collapsed="true"/>
+    <col min="9733" max="9733" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="9734" max="9735" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="9736" max="9736" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="9737" max="9988" style="20" width="9.0" collapsed="true"/>
+    <col min="9989" max="9989" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="9990" max="9991" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="9992" max="9992" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="9993" max="10244" style="20" width="9.0" collapsed="true"/>
+    <col min="10245" max="10245" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="10246" max="10247" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="10248" max="10248" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="10249" max="10500" style="20" width="9.0" collapsed="true"/>
+    <col min="10501" max="10501" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="10502" max="10503" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="10504" max="10504" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="10505" max="10756" style="20" width="9.0" collapsed="true"/>
+    <col min="10757" max="10757" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="10758" max="10759" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="10760" max="10760" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="10761" max="11012" style="20" width="9.0" collapsed="true"/>
+    <col min="11013" max="11013" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="11014" max="11015" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="11016" max="11016" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="11017" max="11268" style="20" width="9.0" collapsed="true"/>
+    <col min="11269" max="11269" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="11270" max="11271" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="11272" max="11272" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="11273" max="11524" style="20" width="9.0" collapsed="true"/>
+    <col min="11525" max="11525" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="11526" max="11527" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="11528" max="11528" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="11529" max="11780" style="20" width="9.0" collapsed="true"/>
+    <col min="11781" max="11781" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="11782" max="11783" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="11784" max="11784" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="11785" max="12036" style="20" width="9.0" collapsed="true"/>
+    <col min="12037" max="12037" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="12038" max="12039" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="12040" max="12040" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="12041" max="12292" style="20" width="9.0" collapsed="true"/>
+    <col min="12293" max="12293" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="12294" max="12295" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="12296" max="12296" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="12297" max="12548" style="20" width="9.0" collapsed="true"/>
+    <col min="12549" max="12549" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="12550" max="12551" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="12552" max="12552" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="12553" max="12804" style="20" width="9.0" collapsed="true"/>
+    <col min="12805" max="12805" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="12806" max="12807" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="12808" max="12808" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="12809" max="13060" style="20" width="9.0" collapsed="true"/>
+    <col min="13061" max="13061" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="13062" max="13063" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="13064" max="13064" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="13065" max="13316" style="20" width="9.0" collapsed="true"/>
+    <col min="13317" max="13317" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="13318" max="13319" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="13320" max="13320" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="13321" max="13572" style="20" width="9.0" collapsed="true"/>
+    <col min="13573" max="13573" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="13574" max="13575" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="13576" max="13576" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="13577" max="13828" style="20" width="9.0" collapsed="true"/>
+    <col min="13829" max="13829" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="13830" max="13831" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="13832" max="13832" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="13833" max="14084" style="20" width="9.0" collapsed="true"/>
+    <col min="14085" max="14085" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="14086" max="14087" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="14088" max="14088" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="14089" max="14340" style="20" width="9.0" collapsed="true"/>
+    <col min="14341" max="14341" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="14342" max="14343" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="14344" max="14344" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="14345" max="14596" style="20" width="9.0" collapsed="true"/>
+    <col min="14597" max="14597" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="14598" max="14599" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="14600" max="14600" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="14601" max="14852" style="20" width="9.0" collapsed="true"/>
+    <col min="14853" max="14853" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="14854" max="14855" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="14856" max="14856" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="14857" max="15108" style="20" width="9.0" collapsed="true"/>
+    <col min="15109" max="15109" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="15110" max="15111" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="15112" max="15112" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="15113" max="15364" style="20" width="9.0" collapsed="true"/>
+    <col min="15365" max="15365" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="15366" max="15367" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="15368" max="15368" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="15369" max="15620" style="20" width="9.0" collapsed="true"/>
+    <col min="15621" max="15621" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="15622" max="15623" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="15624" max="15624" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="15625" max="15876" style="20" width="9.0" collapsed="true"/>
+    <col min="15877" max="15877" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="15878" max="15879" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="15880" max="15880" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="15881" max="16132" style="20" width="9.0" collapsed="true"/>
+    <col min="16133" max="16133" customWidth="true" style="20" width="15.75" collapsed="true"/>
+    <col min="16134" max="16135" customWidth="true" style="20" width="19.0" collapsed="true"/>
+    <col min="16136" max="16136" customWidth="true" style="20" width="16.625" collapsed="true"/>
+    <col min="16137" max="16384" style="20" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">

--- a/excel/Consumption.xlsx
+++ b/excel/Consumption.xlsx
@@ -1499,10 +1499,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="52" t="s">
         <v>49</v>
       </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
